--- a/PROGRAMMAZIONE/HR.xlsx
+++ b/PROGRAMMAZIONE/HR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20366"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23322"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5433AA74-241B-489E-88E4-70BB7CA0FD91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53692824-4278-4A79-8D1A-18A1DF32C8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,18 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$F$81</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,7 +39,13 @@
     <t>reparto</t>
   </si>
   <si>
+    <t>Matricola</t>
+  </si>
+  <si>
     <t>dtnascita</t>
+  </si>
+  <si>
+    <t>hsett</t>
   </si>
   <si>
     <t>laboratorio</t>
@@ -40,38 +57,32 @@
     <t>bg</t>
   </si>
   <si>
-    <t xml:space="preserve">bg </t>
+    <t>Laboratorio Sierologia</t>
   </si>
   <si>
-    <t xml:space="preserve">so </t>
-  </si>
-  <si>
-    <t>hsett</t>
+    <t>Laboratorio Microbiologia degli Alimenti</t>
   </si>
   <si>
     <t>Laboratorio Diagnostica Generale</t>
   </si>
   <si>
-    <t>Laboratorio Microbiologia degli Alimenti</t>
-  </si>
-  <si>
-    <t>Laboratorio Sierologia</t>
+    <t>Amministrazione</t>
   </si>
   <si>
     <t>Accettazione</t>
   </si>
   <si>
-    <t>Amministrazione</t>
+    <t xml:space="preserve">bg </t>
   </si>
   <si>
-    <t>Matricola</t>
+    <t xml:space="preserve">so </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +138,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -423,42 +434,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>866</v>
@@ -467,15 +477,15 @@
         <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>866</v>
@@ -484,15 +494,15 @@
         <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>866</v>
@@ -501,15 +511,15 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
         <v>866</v>
@@ -518,15 +528,15 @@
         <v>25</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>866</v>
@@ -541,9 +551,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1523</v>
@@ -552,15 +562,15 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>1523</v>
@@ -569,15 +579,15 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" s="1">
         <v>1523</v>
@@ -586,15 +596,15 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>1523</v>
@@ -603,15 +613,15 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B11" s="1">
         <v>1523</v>
@@ -626,9 +636,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
         <v>634</v>
@@ -637,15 +647,15 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B13" s="1">
         <v>634</v>
@@ -654,15 +664,15 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>634</v>
@@ -671,15 +681,15 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>634</v>
@@ -688,15 +698,15 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" s="1">
         <v>634</v>
@@ -711,9 +721,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1">
         <v>1306</v>
@@ -722,15 +732,15 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1">
         <v>1306</v>
@@ -739,15 +749,15 @@
         <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1">
         <v>1306</v>
@@ -756,15 +766,15 @@
         <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>1306</v>
@@ -773,15 +783,15 @@
         <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21" s="1">
         <v>1306</v>
@@ -793,12 +803,12 @@
         <v>11</v>
       </c>
       <c r="F21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B22">
         <v>1046</v>
@@ -807,15 +817,15 @@
         <v>36</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B23">
         <v>1046</v>
@@ -824,15 +834,15 @@
         <v>36</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B24">
         <v>1046</v>
@@ -841,15 +851,15 @@
         <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B25">
         <v>1046</v>
@@ -858,15 +868,15 @@
         <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B26">
         <v>1046</v>
@@ -881,9 +891,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B27">
         <v>668</v>
@@ -892,15 +902,15 @@
         <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F27">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>668</v>
@@ -909,15 +919,15 @@
         <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B29">
         <v>668</v>
@@ -926,15 +936,15 @@
         <v>36</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B30">
         <v>668</v>
@@ -943,15 +953,15 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B31">
         <v>668</v>
@@ -966,9 +976,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B32">
         <v>1797</v>
@@ -977,15 +987,15 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F32">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B33">
         <v>1797</v>
@@ -994,15 +1004,15 @@
         <v>36</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B34">
         <v>1797</v>
@@ -1011,15 +1021,15 @@
         <v>36</v>
       </c>
       <c r="E34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B35">
         <v>1797</v>
@@ -1028,15 +1038,15 @@
         <v>36</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B36">
         <v>1797</v>
@@ -1051,9 +1061,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B37">
         <v>1878</v>
@@ -1062,15 +1072,15 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B38">
         <v>1878</v>
@@ -1079,15 +1089,15 @@
         <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B39">
         <v>1878</v>
@@ -1096,15 +1106,15 @@
         <v>36</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B40">
         <v>1878</v>
@@ -1113,15 +1123,15 @@
         <v>36</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B41">
         <v>1878</v>
@@ -1133,12 +1143,12 @@
         <v>11</v>
       </c>
       <c r="F41">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B42">
         <v>1557</v>
@@ -1147,15 +1157,15 @@
         <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B43">
         <v>1557</v>
@@ -1164,15 +1174,15 @@
         <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B44">
         <v>1557</v>
@@ -1181,15 +1191,15 @@
         <v>36</v>
       </c>
       <c r="E44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F44">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B45">
         <v>1557</v>
@@ -1198,15 +1208,15 @@
         <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <v>1557</v>
@@ -1218,12 +1228,12 @@
         <v>11</v>
       </c>
       <c r="F46">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>1877</v>
@@ -1232,15 +1242,15 @@
         <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>1877</v>
@@ -1249,15 +1259,15 @@
         <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B49">
         <v>1877</v>
@@ -1266,15 +1276,15 @@
         <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>1877</v>
@@ -1283,15 +1293,15 @@
         <v>36</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B51">
         <v>1877</v>
@@ -1303,12 +1313,12 @@
         <v>11</v>
       </c>
       <c r="F51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B52">
         <v>313</v>
@@ -1317,15 +1327,15 @@
         <v>36</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F52">
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B53">
         <v>313</v>
@@ -1334,15 +1344,15 @@
         <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B54">
         <v>313</v>
@@ -1351,15 +1361,15 @@
         <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F54">
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B55">
         <v>313</v>
@@ -1368,15 +1378,15 @@
         <v>36</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B56">
         <v>313</v>
@@ -1391,9 +1401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B57">
         <v>629</v>
@@ -1402,15 +1412,15 @@
         <v>36</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F57">
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B58">
         <v>629</v>
@@ -1419,15 +1429,15 @@
         <v>36</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B59">
         <v>629</v>
@@ -1436,15 +1446,15 @@
         <v>36</v>
       </c>
       <c r="E59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F59">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B60">
         <v>629</v>
@@ -1453,15 +1463,15 @@
         <v>36</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B61">
         <v>629</v>
@@ -1476,9 +1486,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B62">
         <v>633</v>
@@ -1487,15 +1497,15 @@
         <v>36</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F62">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B63">
         <v>633</v>
@@ -1504,15 +1514,15 @@
         <v>36</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B64">
         <v>633</v>
@@ -1521,15 +1531,15 @@
         <v>36</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64">
         <v>25</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B65">
         <v>633</v>
@@ -1538,15 +1548,15 @@
         <v>36</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B66">
         <v>633</v>
@@ -1561,9 +1571,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B67">
         <v>735</v>
@@ -1572,15 +1582,15 @@
         <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B68">
         <v>735</v>
@@ -1589,15 +1599,15 @@
         <v>36</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F68">
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>735</v>
@@ -1606,15 +1616,15 @@
         <v>36</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F69">
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B70">
         <v>735</v>
@@ -1623,15 +1633,15 @@
         <v>36</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B71">
         <v>735</v>
@@ -1646,9 +1656,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B72">
         <v>784</v>
@@ -1657,15 +1667,15 @@
         <v>36</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F72">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B73">
         <v>784</v>
@@ -1674,15 +1684,15 @@
         <v>36</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F73">
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B74">
         <v>784</v>
@@ -1691,15 +1701,15 @@
         <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F74">
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B75">
         <v>784</v>
@@ -1708,15 +1718,15 @@
         <v>36</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B76">
         <v>784</v>
@@ -1731,9 +1741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B77">
         <v>927</v>
@@ -1742,15 +1752,15 @@
         <v>36</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B78">
         <v>927</v>
@@ -1759,15 +1769,15 @@
         <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>927</v>
@@ -1776,15 +1786,15 @@
         <v>36</v>
       </c>
       <c r="E79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B80">
         <v>927</v>
@@ -1793,15 +1803,15 @@
         <v>36</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F80">
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B81">
         <v>927</v>
@@ -1817,13 +1827,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F81" xr:uid="{1CC2AAAC-664D-48E7-88D7-03B2DA4317C1}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="amm"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PROGRAMMAZIONE/HR.xlsx
+++ b/PROGRAMMAZIONE/HR.xlsx
@@ -1,17 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20366"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dati\vito.tranquillo\Desktop\GitProjects\IZSLER-COGES\PROGRAMMAZIONE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FE3FCF-CC04-423D-A952-AE3FC3F654A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId4"/>
+    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$F$76</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="13">
   <si>
     <t>reparto</t>
   </si>
@@ -31,9 +43,6 @@
     <t>attività</t>
   </si>
   <si>
-    <t>bg</t>
-  </si>
-  <si>
     <t>Laboratorio Sierologia</t>
   </si>
   <si>
@@ -49,32 +58,19 @@
     <t>Accettazione</t>
   </si>
   <si>
-    <t xml:space="preserve">bg </t>
+    <t>Sede Territoriale di Bergamo</t>
   </si>
   <si>
-    <t xml:space="preserve">so </t>
+    <t>Sede Territoriale di Sondrio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -112,51 +108,101 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -358,7 +404,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -377,7 +423,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -407,7 +453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -433,7 +479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -459,7 +505,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -485,7 +531,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -511,7 +557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -537,7 +583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -563,7 +609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -589,7 +635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -615,7 +661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -628,9 +674,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -647,7 +699,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -666,7 +718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -848,7 +900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -874,7 +926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -900,7 +952,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -913,9 +965,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -929,7 +987,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -948,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -978,7 +1036,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1004,7 +1062,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1030,7 +1088,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1056,7 +1114,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1082,7 +1140,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,54 +1257,64 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67:B71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="8.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="2">
+    <row r="1" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="2">
-        <v>6</v>
+    <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="3">
         <v>866</v>
@@ -1255,16 +1323,16 @@
       <c r="D2" s="3">
         <v>25</v>
       </c>
-      <c r="E2" t="s" s="2">
-        <v>7</v>
+      <c r="E2" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F2" s="3">
         <v>95</v>
       </c>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
-      <c r="A3" t="s" s="2">
-        <v>6</v>
+    <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>866</v>
@@ -1273,16 +1341,16 @@
       <c r="D3" s="3">
         <v>25</v>
       </c>
-      <c r="E3" t="s" s="2">
-        <v>8</v>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" ht="13.55" customHeight="1">
-      <c r="A4" t="s" s="2">
-        <v>6</v>
+    <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>866</v>
@@ -1291,16 +1359,16 @@
       <c r="D4" s="3">
         <v>25</v>
       </c>
-      <c r="E4" t="s" s="2">
-        <v>9</v>
+      <c r="E4" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
-      <c r="A5" t="s" s="2">
-        <v>6</v>
+    <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="3">
         <v>866</v>
@@ -1309,16 +1377,16 @@
       <c r="D5" s="3">
         <v>25</v>
       </c>
-      <c r="E5" t="s" s="2">
-        <v>10</v>
+      <c r="E5" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
-      <c r="A6" t="s" s="2">
-        <v>6</v>
+    <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>866</v>
@@ -1327,16 +1395,16 @@
       <c r="D6" s="3">
         <v>25</v>
       </c>
-      <c r="E6" t="s" s="2">
-        <v>11</v>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
-        <v>6</v>
+    <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B7" s="3">
         <v>1523</v>
@@ -1345,16 +1413,16 @@
       <c r="D7" s="3">
         <v>36</v>
       </c>
-      <c r="E7" t="s" s="2">
-        <v>7</v>
+      <c r="E7" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
-      <c r="A8" t="s" s="2">
-        <v>6</v>
+    <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>1523</v>
@@ -1363,16 +1431,16 @@
       <c r="D8" s="3">
         <v>36</v>
       </c>
-      <c r="E8" t="s" s="2">
-        <v>8</v>
+      <c r="E8" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" t="s" s="2">
-        <v>6</v>
+    <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <v>1523</v>
@@ -1381,16 +1449,16 @@
       <c r="D9" s="3">
         <v>36</v>
       </c>
-      <c r="E9" t="s" s="2">
-        <v>9</v>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
-      <c r="A10" t="s" s="2">
-        <v>6</v>
+    <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B10" s="3">
         <v>1523</v>
@@ -1399,16 +1467,16 @@
       <c r="D10" s="3">
         <v>36</v>
       </c>
-      <c r="E10" t="s" s="2">
-        <v>10</v>
+      <c r="E10" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" t="s" s="2">
-        <v>6</v>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B11" s="3">
         <v>1523</v>
@@ -1417,16 +1485,16 @@
       <c r="D11" s="3">
         <v>36</v>
       </c>
-      <c r="E11" t="s" s="2">
-        <v>11</v>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" t="s" s="2">
-        <v>6</v>
+    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <v>634</v>
@@ -1435,16 +1503,16 @@
       <c r="D12" s="3">
         <v>36</v>
       </c>
-      <c r="E12" t="s" s="2">
-        <v>7</v>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" t="s" s="2">
-        <v>6</v>
+    <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>634</v>
@@ -1453,16 +1521,16 @@
       <c r="D13" s="3">
         <v>36</v>
       </c>
-      <c r="E13" t="s" s="2">
-        <v>8</v>
+      <c r="E13" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F13" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" t="s" s="2">
-        <v>6</v>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B14" s="3">
         <v>634</v>
@@ -1471,16 +1539,16 @@
       <c r="D14" s="3">
         <v>36</v>
       </c>
-      <c r="E14" t="s" s="2">
-        <v>9</v>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" t="s" s="2">
-        <v>6</v>
+    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B15" s="3">
         <v>634</v>
@@ -1489,16 +1557,16 @@
       <c r="D15" s="3">
         <v>36</v>
       </c>
-      <c r="E15" t="s" s="2">
-        <v>10</v>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" t="s" s="2">
-        <v>6</v>
+    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B16" s="3">
         <v>634</v>
@@ -1507,1186 +1575,1096 @@
       <c r="D16" s="3">
         <v>36</v>
       </c>
-      <c r="E16" t="s" s="2">
-        <v>11</v>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F16" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" t="s" s="2">
-        <v>6</v>
+    <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B17" s="3">
-        <v>1306</v>
+        <v>1046</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="3">
         <v>36</v>
       </c>
-      <c r="E17" t="s" s="2">
-        <v>7</v>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="2">
-        <v>6</v>
+    <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>1306</v>
+        <v>1046</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="3">
         <v>36</v>
       </c>
-      <c r="E18" t="s" s="2">
-        <v>8</v>
+      <c r="E18" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
-      <c r="A19" t="s" s="2">
-        <v>6</v>
+    <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B19" s="3">
-        <v>1306</v>
+        <v>1046</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="3">
         <v>36</v>
       </c>
-      <c r="E19" t="s" s="2">
-        <v>9</v>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F19" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" t="s" s="2">
-        <v>6</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B20" s="3">
-        <v>1306</v>
+        <v>1046</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="3">
         <v>36</v>
       </c>
-      <c r="E20" t="s" s="2">
-        <v>10</v>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
-      <c r="A21" t="s" s="2">
-        <v>6</v>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B21" s="3">
-        <v>1306</v>
+        <v>1046</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3">
         <v>36</v>
       </c>
-      <c r="E21" t="s" s="2">
-        <v>11</v>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" t="s" s="2">
-        <v>12</v>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B22" s="3">
-        <v>1046</v>
+        <v>668</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="3">
         <v>36</v>
       </c>
-      <c r="E22" t="s" s="2">
-        <v>7</v>
+      <c r="E22" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" t="s" s="2">
-        <v>12</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B23" s="3">
-        <v>1046</v>
+        <v>668</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="3">
         <v>36</v>
       </c>
-      <c r="E23" t="s" s="2">
-        <v>8</v>
+      <c r="E23" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" t="s" s="2">
-        <v>12</v>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B24" s="3">
-        <v>1046</v>
+        <v>668</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="3">
         <v>36</v>
       </c>
-      <c r="E24" t="s" s="2">
-        <v>9</v>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" t="s" s="2">
-        <v>12</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B25" s="3">
-        <v>1046</v>
+        <v>668</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="3">
         <v>36</v>
       </c>
-      <c r="E25" t="s" s="2">
-        <v>10</v>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" t="s" s="2">
-        <v>12</v>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B26" s="3">
-        <v>1046</v>
+        <v>668</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="3">
         <v>36</v>
       </c>
-      <c r="E26" t="s" s="2">
-        <v>11</v>
+      <c r="E26" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
-      <c r="A27" t="s" s="2">
-        <v>12</v>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B27" s="3">
-        <v>668</v>
+        <v>1797</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="3">
         <v>36</v>
       </c>
-      <c r="E27" t="s" s="2">
-        <v>7</v>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" t="s" s="2">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B28" s="3">
-        <v>668</v>
+        <v>1797</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="3">
         <v>36</v>
       </c>
-      <c r="E28" t="s" s="2">
-        <v>8</v>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F28" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" t="s" s="2">
-        <v>12</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B29" s="3">
-        <v>668</v>
+        <v>1797</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="3">
         <v>36</v>
       </c>
-      <c r="E29" t="s" s="2">
-        <v>9</v>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" ht="13.55" customHeight="1">
-      <c r="A30" t="s" s="2">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B30" s="3">
-        <v>668</v>
+        <v>1797</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="3">
         <v>36</v>
       </c>
-      <c r="E30" t="s" s="2">
-        <v>10</v>
+      <c r="E30" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F30" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
-      <c r="A31" t="s" s="2">
-        <v>12</v>
+    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B31" s="3">
-        <v>668</v>
+        <v>1797</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="3">
         <v>36</v>
       </c>
-      <c r="E31" t="s" s="2">
-        <v>11</v>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="13.55" customHeight="1">
-      <c r="A32" t="s" s="2">
-        <v>12</v>
+    <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B32" s="3">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="3">
         <v>36</v>
       </c>
-      <c r="E32" t="s" s="2">
-        <v>7</v>
+      <c r="E32" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
-      <c r="A33" t="s" s="2">
-        <v>12</v>
+    <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B33" s="3">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="3">
         <v>36</v>
       </c>
-      <c r="E33" t="s" s="2">
-        <v>8</v>
+      <c r="E33" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" ht="13.55" customHeight="1">
-      <c r="A34" t="s" s="2">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B34" s="3">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="3">
         <v>36</v>
       </c>
-      <c r="E34" t="s" s="2">
-        <v>9</v>
+      <c r="E34" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F34" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
-      <c r="A35" t="s" s="2">
-        <v>12</v>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B35" s="3">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="3">
         <v>36</v>
       </c>
-      <c r="E35" t="s" s="2">
-        <v>10</v>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
-      <c r="A36" t="s" s="2">
-        <v>12</v>
+    <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B36" s="3">
-        <v>1797</v>
+        <v>1878</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="3">
         <v>36</v>
       </c>
-      <c r="E36" t="s" s="2">
-        <v>11</v>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F36" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="13.55" customHeight="1">
-      <c r="A37" t="s" s="2">
-        <v>12</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B37" s="3">
-        <v>1878</v>
+        <v>1557</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="3">
         <v>36</v>
       </c>
-      <c r="E37" t="s" s="2">
-        <v>7</v>
+      <c r="E37" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F37" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
-      <c r="A38" t="s" s="2">
-        <v>12</v>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B38" s="3">
-        <v>1878</v>
+        <v>1557</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="3">
         <v>36</v>
       </c>
-      <c r="E38" t="s" s="2">
-        <v>8</v>
+      <c r="E38" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
-      <c r="A39" t="s" s="2">
-        <v>12</v>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B39" s="3">
-        <v>1878</v>
+        <v>1557</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="3">
         <v>36</v>
       </c>
-      <c r="E39" t="s" s="2">
-        <v>9</v>
+      <c r="E39" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F39" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="13.55" customHeight="1">
-      <c r="A40" t="s" s="2">
-        <v>12</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B40" s="3">
-        <v>1878</v>
+        <v>1557</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="3">
         <v>36</v>
       </c>
-      <c r="E40" t="s" s="2">
-        <v>10</v>
+      <c r="E40" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F40" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
-      <c r="A41" t="s" s="2">
-        <v>12</v>
+    <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B41" s="3">
-        <v>1878</v>
+        <v>1557</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="3">
         <v>36</v>
       </c>
-      <c r="E41" t="s" s="2">
-        <v>11</v>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" ht="13.55" customHeight="1">
-      <c r="A42" t="s" s="2">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B42" s="3">
-        <v>1557</v>
+        <v>1877</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="3">
         <v>36</v>
       </c>
-      <c r="E42" t="s" s="2">
-        <v>7</v>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
-      <c r="A43" t="s" s="2">
-        <v>12</v>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B43" s="3">
-        <v>1557</v>
+        <v>1877</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="3">
         <v>36</v>
       </c>
-      <c r="E43" t="s" s="2">
-        <v>8</v>
+      <c r="E43" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>12</v>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B44" s="3">
-        <v>1557</v>
+        <v>1877</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="3">
         <v>36</v>
       </c>
-      <c r="E44" t="s" s="2">
-        <v>9</v>
+      <c r="E44" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" ht="13.55" customHeight="1">
-      <c r="A45" t="s" s="2">
-        <v>12</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B45" s="3">
-        <v>1557</v>
+        <v>1877</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3">
         <v>36</v>
       </c>
-      <c r="E45" t="s" s="2">
-        <v>10</v>
+      <c r="E45" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" ht="13.55" customHeight="1">
-      <c r="A46" t="s" s="2">
-        <v>12</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B46" s="3">
-        <v>1557</v>
+        <v>1877</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="3">
         <v>36</v>
       </c>
-      <c r="E46" t="s" s="2">
-        <v>11</v>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" ht="13.55" customHeight="1">
-      <c r="A47" t="s" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="3">
-        <v>1877</v>
+        <v>313</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3">
         <v>36</v>
       </c>
-      <c r="E47" t="s" s="2">
-        <v>7</v>
+      <c r="E47" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" ht="13.55" customHeight="1">
-      <c r="A48" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B48" s="3">
-        <v>1877</v>
+        <v>313</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3">
         <v>36</v>
       </c>
-      <c r="E48" t="s" s="2">
-        <v>8</v>
+      <c r="E48" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" ht="13.55" customHeight="1">
-      <c r="A49" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B49" s="3">
-        <v>1877</v>
+        <v>313</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3">
         <v>36</v>
       </c>
-      <c r="E49" t="s" s="2">
-        <v>9</v>
+      <c r="E49" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" ht="13.55" customHeight="1">
-      <c r="A50" t="s" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B50" s="3">
-        <v>1877</v>
+        <v>313</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3">
         <v>36</v>
       </c>
-      <c r="E50" t="s" s="2">
-        <v>10</v>
+      <c r="E50" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F50" s="3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="51" ht="13.55" customHeight="1">
-      <c r="A51" t="s" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B51" s="3">
-        <v>1877</v>
+        <v>313</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="3">
         <v>36</v>
       </c>
-      <c r="E51" t="s" s="2">
-        <v>11</v>
+      <c r="E51" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F51" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" ht="13.55" customHeight="1">
-      <c r="A52" t="s" s="2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B52" s="3">
-        <v>313</v>
+        <v>629</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="3">
         <v>36</v>
       </c>
-      <c r="E52" t="s" s="2">
-        <v>7</v>
+      <c r="E52" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" ht="13.55" customHeight="1">
-      <c r="A53" t="s" s="2">
-        <v>13</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B53" s="3">
-        <v>313</v>
+        <v>629</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="3">
         <v>36</v>
       </c>
-      <c r="E53" t="s" s="2">
-        <v>8</v>
+      <c r="E53" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F53" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" ht="13.55" customHeight="1">
-      <c r="A54" t="s" s="2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B54" s="3">
-        <v>313</v>
+        <v>629</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="3">
         <v>36</v>
       </c>
-      <c r="E54" t="s" s="2">
-        <v>9</v>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F54" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
-      <c r="A55" t="s" s="2">
-        <v>13</v>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B55" s="3">
-        <v>313</v>
+        <v>629</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="3">
         <v>36</v>
       </c>
-      <c r="E55" t="s" s="2">
-        <v>10</v>
+      <c r="E55" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F55" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
-      <c r="A56" t="s" s="2">
-        <v>13</v>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B56" s="3">
-        <v>313</v>
+        <v>629</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="3">
         <v>36</v>
       </c>
-      <c r="E56" t="s" s="2">
-        <v>11</v>
+      <c r="E56" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F56" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
-      <c r="A57" t="s" s="2">
-        <v>13</v>
+    <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B57" s="3">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="3">
         <v>36</v>
       </c>
-      <c r="E57" t="s" s="2">
-        <v>7</v>
+      <c r="E57" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F57" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" ht="13.55" customHeight="1">
-      <c r="A58" t="s" s="2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B58" s="3">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="3">
         <v>36</v>
       </c>
-      <c r="E58" t="s" s="2">
-        <v>8</v>
+      <c r="E58" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" ht="13.55" customHeight="1">
-      <c r="A59" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B59" s="3">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="3">
         <v>36</v>
       </c>
-      <c r="E59" t="s" s="2">
-        <v>9</v>
+      <c r="E59" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="60" ht="13.55" customHeight="1">
-      <c r="A60" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B60" s="3">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="3">
         <v>36</v>
       </c>
-      <c r="E60" t="s" s="2">
-        <v>10</v>
+      <c r="E60" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
-      <c r="A61" t="s" s="2">
-        <v>13</v>
+    <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B61" s="3">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="3">
         <v>36</v>
       </c>
-      <c r="E61" t="s" s="2">
-        <v>11</v>
+      <c r="E61" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" ht="13.55" customHeight="1">
-      <c r="A62" t="s" s="2">
-        <v>13</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B62" s="3">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="C62" s="4"/>
       <c r="D62" s="3">
         <v>36</v>
       </c>
-      <c r="E62" t="s" s="2">
-        <v>7</v>
+      <c r="E62" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F62" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" ht="13.55" customHeight="1">
-      <c r="A63" t="s" s="2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B63" s="3">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="3">
         <v>36</v>
       </c>
-      <c r="E63" t="s" s="2">
-        <v>8</v>
+      <c r="E63" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F63" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" ht="13.55" customHeight="1">
-      <c r="A64" t="s" s="2">
-        <v>13</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B64" s="3">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="C64" s="4"/>
       <c r="D64" s="3">
         <v>36</v>
       </c>
-      <c r="E64" t="s" s="2">
-        <v>9</v>
+      <c r="E64" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F64" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" ht="13.55" customHeight="1">
-      <c r="A65" t="s" s="2">
-        <v>13</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B65" s="3">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="C65" s="4"/>
       <c r="D65" s="3">
         <v>36</v>
       </c>
-      <c r="E65" t="s" s="2">
-        <v>10</v>
+      <c r="E65" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F65" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
-      <c r="A66" t="s" s="2">
-        <v>13</v>
+    <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B66" s="3">
-        <v>633</v>
+        <v>735</v>
       </c>
       <c r="C66" s="4"/>
       <c r="D66" s="3">
         <v>36</v>
       </c>
-      <c r="E66" t="s" s="2">
-        <v>11</v>
+      <c r="E66" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
-      <c r="A67" t="s" s="2">
-        <v>13</v>
+    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B67" s="3">
-        <v>735</v>
+        <v>974</v>
       </c>
       <c r="C67" s="4"/>
       <c r="D67" s="3">
         <v>36</v>
       </c>
-      <c r="E67" t="s" s="2">
-        <v>7</v>
+      <c r="E67" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F67" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" ht="13.55" customHeight="1">
-      <c r="A68" t="s" s="2">
-        <v>13</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B68" s="3">
-        <v>735</v>
+        <v>974</v>
       </c>
       <c r="C68" s="4"/>
       <c r="D68" s="3">
         <v>36</v>
       </c>
-      <c r="E68" t="s" s="2">
-        <v>8</v>
+      <c r="E68" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F68" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" ht="13.55" customHeight="1">
-      <c r="A69" t="s" s="2">
-        <v>13</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B69" s="3">
-        <v>735</v>
+        <v>974</v>
       </c>
       <c r="C69" s="4"/>
       <c r="D69" s="3">
         <v>36</v>
       </c>
-      <c r="E69" t="s" s="2">
-        <v>9</v>
+      <c r="E69" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F69" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" ht="13.55" customHeight="1">
-      <c r="A70" t="s" s="2">
-        <v>13</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B70" s="3">
-        <v>735</v>
+        <v>974</v>
       </c>
       <c r="C70" s="4"/>
       <c r="D70" s="3">
         <v>36</v>
       </c>
-      <c r="E70" t="s" s="2">
-        <v>10</v>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <v>13</v>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B71" s="3">
-        <v>735</v>
+        <v>974</v>
       </c>
       <c r="C71" s="4"/>
       <c r="D71" s="3">
         <v>36</v>
       </c>
-      <c r="E71" t="s" s="2">
-        <v>11</v>
+      <c r="E71" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F71" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
-      <c r="A72" t="s" s="2">
-        <v>13</v>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B72" s="3">
-        <v>784</v>
+        <v>927</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="3">
         <v>36</v>
       </c>
-      <c r="E72" t="s" s="2">
-        <v>7</v>
+      <c r="E72" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="F72" s="3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" ht="13.55" customHeight="1">
-      <c r="A73" t="s" s="2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B73" s="3">
-        <v>784</v>
+        <v>927</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="3">
         <v>36</v>
       </c>
-      <c r="E73" t="s" s="2">
-        <v>8</v>
+      <c r="E73" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="F73" s="3">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="74" ht="13.55" customHeight="1">
-      <c r="A74" t="s" s="2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B74" s="3">
-        <v>784</v>
+        <v>927</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="3">
         <v>36</v>
       </c>
-      <c r="E74" t="s" s="2">
-        <v>9</v>
+      <c r="E74" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="F74" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" ht="13.55" customHeight="1">
-      <c r="A75" t="s" s="2">
-        <v>13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B75" s="3">
-        <v>784</v>
+        <v>927</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="3">
         <v>36</v>
       </c>
-      <c r="E75" t="s" s="2">
-        <v>10</v>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="F75" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" ht="13.55" customHeight="1">
-      <c r="A76" t="s" s="2">
-        <v>13</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B76" s="3">
-        <v>784</v>
+        <v>927</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="3">
         <v>36</v>
       </c>
-      <c r="E76" t="s" s="2">
-        <v>11</v>
+      <c r="E76" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" ht="13.55" customHeight="1">
-      <c r="A77" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B77" s="3">
-        <v>927</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="3">
-        <v>36</v>
-      </c>
-      <c r="E77" t="s" s="2">
-        <v>7</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" ht="13.55" customHeight="1">
-      <c r="A78" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B78" s="3">
-        <v>927</v>
-      </c>
-      <c r="C78" s="4"/>
-      <c r="D78" s="3">
-        <v>36</v>
-      </c>
-      <c r="E78" t="s" s="2">
-        <v>8</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" ht="13.55" customHeight="1">
-      <c r="A79" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B79" s="3">
-        <v>927</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="3">
-        <v>36</v>
-      </c>
-      <c r="E79" t="s" s="2">
-        <v>9</v>
-      </c>
-      <c r="F79" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" ht="13.55" customHeight="1">
-      <c r="A80" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B80" s="3">
-        <v>927</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="3">
-        <v>36</v>
-      </c>
-      <c r="E80" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="F80" s="3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="81" ht="13.55" customHeight="1">
-      <c r="A81" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="B81" s="3">
-        <v>927</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="3">
-        <v>36</v>
-      </c>
-      <c r="E81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="F81" s="3">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
